--- a/uploads/rbt/rbtNew.xlsx
+++ b/uploads/rbt/rbtNew.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XAMPP\htdocs\rbt_system\uploads\rbt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\php7.2\xampp\htdocs\rbt_system_php7\uploads\rbt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,13 +47,13 @@
     <t>Rbt Name English</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Occasion</t>
   </si>
   <si>
     <t>Provider</t>
+  </si>
+  <si>
+    <t>Master Content Code</t>
   </si>
 </sst>
 </file>
@@ -129,16 +129,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,6 +433,7 @@
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -458,16 +456,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
